--- a/CSVs/xlsx/task15.xlsx
+++ b/CSVs/xlsx/task15.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Stuff\OpenMP\CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\source\repos\Univ\OpenMP\Lab1\CSVs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="task11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -672,31 +672,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.56755E-2</c:v>
+                  <c:v>2.1760000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16877900000000001</c:v>
+                  <c:v>0.26410699999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52899099999999999</c:v>
+                  <c:v>2.00533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76346899999999995</c:v>
+                  <c:v>1.96267E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0443899999999999</c:v>
+                  <c:v>2.2613299999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2516799999999999</c:v>
+                  <c:v>2.9866699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1193599999999999</c:v>
+                  <c:v>1.87733E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -769,31 +769,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.6868699999999999</c:v>
+                  <c:v>1.98272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7095199999999999</c:v>
+                  <c:v>1.2317899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0918000000000001</c:v>
+                  <c:v>1.0496000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4792000000000001</c:v>
+                  <c:v>1.3273600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9768500000000002</c:v>
+                  <c:v>1.1008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0251800000000002</c:v>
+                  <c:v>1.09013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9657300000000002</c:v>
+                  <c:v>1.0939700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -866,31 +866,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11.497299999999999</c:v>
+                  <c:v>7.7124300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5074399999999999</c:v>
+                  <c:v>3.5298099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1230599999999997</c:v>
+                  <c:v>3.2230400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6947200000000002</c:v>
+                  <c:v>2.81216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4929299999999994</c:v>
+                  <c:v>3.5515699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5358099999999997</c:v>
+                  <c:v>2.8795700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5220000000000002</c:v>
+                  <c:v>4.6122699999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -963,31 +963,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45.897199999999998</c:v>
+                  <c:v>22.779299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.949000000000002</c:v>
+                  <c:v>10.7597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.2791</c:v>
+                  <c:v>11.8558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.340299999999999</c:v>
+                  <c:v>10.757099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.1753</c:v>
+                  <c:v>12.0418</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.496200000000002</c:v>
+                  <c:v>12.131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.722000000000001</c:v>
+                  <c:v>11.831899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1060,31 +1060,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>104.313</c:v>
+                  <c:v>50.826300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.843299999999999</c:v>
+                  <c:v>27.936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.820300000000003</c:v>
+                  <c:v>25.722899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.235399999999998</c:v>
+                  <c:v>26.052700000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.347499999999997</c:v>
+                  <c:v>25.776199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.583699999999993</c:v>
+                  <c:v>25.413599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.185900000000004</c:v>
+                  <c:v>25.680700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1157,31 +1157,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>190.053</c:v>
+                  <c:v>88.509900000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.54300000000001</c:v>
+                  <c:v>45.778799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.224</c:v>
+                  <c:v>45.669600000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.994</c:v>
+                  <c:v>44.914400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114.768</c:v>
+                  <c:v>44.329000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.447</c:v>
+                  <c:v>45.180999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.10299999999999</c:v>
+                  <c:v>46.968800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1260,31 +1260,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>294.44099999999997</c:v>
+                  <c:v>138.54900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.77600000000001</c:v>
+                  <c:v>69.327799999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.786</c:v>
+                  <c:v>73.412300000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.15</c:v>
+                  <c:v>69.425899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186.63</c:v>
+                  <c:v>68.911000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.81700000000001</c:v>
+                  <c:v>75.184200000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179.471</c:v>
+                  <c:v>74.159800000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1298,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389261544"/>
-        <c:axId val="389260232"/>
+        <c:axId val="688880544"/>
+        <c:axId val="688871840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389261544"/>
+        <c:axId val="688880544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1412,15 +1412,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389260232"/>
+        <c:crossAx val="688871840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389260232"/>
+        <c:axId val="688871840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1536,10 +1536,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389261544"/>
+        <c:crossAx val="688880544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,7 +1579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1609,7 +1609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2476,13 +2476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2505,165 +2505,165 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2.56755E-2</v>
+        <v>2.1760000000000002E-2</v>
       </c>
       <c r="B2">
-        <v>0.16877900000000001</v>
+        <v>0.26410699999999998</v>
       </c>
       <c r="C2">
-        <v>0.52899099999999999</v>
+        <v>2.00533E-2</v>
       </c>
       <c r="D2">
-        <v>0.76346899999999995</v>
+        <v>1.96267E-2</v>
       </c>
       <c r="E2">
-        <v>1.0443899999999999</v>
+        <v>2.2613299999999999E-2</v>
       </c>
       <c r="F2">
-        <v>1.2516799999999999</v>
+        <v>2.9866699999999999E-2</v>
       </c>
       <c r="G2">
-        <v>2.1193599999999999</v>
+        <v>1.87733E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2.6868699999999999</v>
+        <v>1.98272</v>
       </c>
       <c r="B3">
-        <v>2.7095199999999999</v>
+        <v>1.2317899999999999</v>
       </c>
       <c r="C3">
-        <v>2.0918000000000001</v>
+        <v>1.0496000000000001</v>
       </c>
       <c r="D3">
-        <v>2.4792000000000001</v>
+        <v>1.3273600000000001</v>
       </c>
       <c r="E3">
-        <v>2.9768500000000002</v>
+        <v>1.1008</v>
       </c>
       <c r="F3">
-        <v>3.0251800000000002</v>
+        <v>1.09013</v>
       </c>
       <c r="G3">
-        <v>3.9657300000000002</v>
+        <v>1.0939700000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>11.497299999999999</v>
+        <v>7.7124300000000003</v>
       </c>
       <c r="B4">
-        <v>7.5074399999999999</v>
+        <v>3.5298099999999999</v>
       </c>
       <c r="C4">
-        <v>7.1230599999999997</v>
+        <v>3.2230400000000001</v>
       </c>
       <c r="D4">
-        <v>7.6947200000000002</v>
+        <v>2.81216</v>
       </c>
       <c r="E4">
-        <v>8.4929299999999994</v>
+        <v>3.5515699999999999</v>
       </c>
       <c r="F4">
-        <v>9.5358099999999997</v>
+        <v>2.8795700000000002</v>
       </c>
       <c r="G4">
-        <v>8.5220000000000002</v>
+        <v>4.6122699999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>45.897199999999998</v>
+        <v>22.779299999999999</v>
       </c>
       <c r="B5">
-        <v>29.949000000000002</v>
+        <v>10.7597</v>
       </c>
       <c r="C5">
-        <v>29.2791</v>
+        <v>11.8558</v>
       </c>
       <c r="D5">
-        <v>29.340299999999999</v>
+        <v>10.757099999999999</v>
       </c>
       <c r="E5">
-        <v>29.1753</v>
+        <v>12.0418</v>
       </c>
       <c r="F5">
-        <v>29.496200000000002</v>
+        <v>12.131</v>
       </c>
       <c r="G5">
-        <v>29.722000000000001</v>
+        <v>11.831899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>104.313</v>
+        <v>50.826300000000003</v>
       </c>
       <c r="B6">
-        <v>63.843299999999999</v>
+        <v>27.936</v>
       </c>
       <c r="C6">
-        <v>65.820300000000003</v>
+        <v>25.722899999999999</v>
       </c>
       <c r="D6">
-        <v>63.235399999999998</v>
+        <v>26.052700000000002</v>
       </c>
       <c r="E6">
-        <v>65.347499999999997</v>
+        <v>25.776199999999999</v>
       </c>
       <c r="F6">
-        <v>64.583699999999993</v>
+        <v>25.413599999999999</v>
       </c>
       <c r="G6">
-        <v>65.185900000000004</v>
+        <v>25.680700000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>190.053</v>
+        <v>88.509900000000002</v>
       </c>
       <c r="B7">
-        <v>114.54300000000001</v>
+        <v>45.778799999999997</v>
       </c>
       <c r="C7">
-        <v>113.224</v>
+        <v>45.669600000000003</v>
       </c>
       <c r="D7">
-        <v>113.994</v>
+        <v>44.914400000000001</v>
       </c>
       <c r="E7">
-        <v>114.768</v>
+        <v>44.329000000000001</v>
       </c>
       <c r="F7">
-        <v>114.447</v>
+        <v>45.180999999999997</v>
       </c>
       <c r="G7">
-        <v>115.10299999999999</v>
+        <v>46.968800000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>294.44099999999997</v>
+        <v>138.54900000000001</v>
       </c>
       <c r="B8">
-        <v>179.77600000000001</v>
+        <v>69.327799999999996</v>
       </c>
       <c r="C8">
-        <v>176.786</v>
+        <v>73.412300000000002</v>
       </c>
       <c r="D8">
-        <v>177.15</v>
+        <v>69.425899999999999</v>
       </c>
       <c r="E8">
-        <v>186.63</v>
+        <v>68.911000000000001</v>
       </c>
       <c r="F8">
-        <v>177.81700000000001</v>
+        <v>75.184200000000004</v>
       </c>
       <c r="G8">
-        <v>179.471</v>
+        <v>74.159800000000004</v>
       </c>
     </row>
   </sheetData>
